--- a/Multi-taxa_data/eDNA/4-Output/ESV_higher_ANCOM_BC2.xlsx
+++ b/Multi-taxa_data/eDNA/4-Output/ESV_higher_ANCOM_BC2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,14 +417,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESV_10</t>
+          <t>ESV_109</t>
         </is>
       </c>
       <c r="B2">
-        <v>5.929606534024431</v>
+        <v>-5.086209956710698</v>
       </c>
       <c r="C2">
-        <v>1.254637500458181E-06</v>
+        <v>4.319903290633535E-05</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -437,53 +437,48 @@
           <t>***</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Chlorophyta</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mamiellophyceae</t>
+          <t>Phaeophyceae</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mamiellales</t>
+          <t>Class_Phaeophyceae</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Mamiellaceae</t>
+          <t>Class_Phaeophyceae</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Micromonas</t>
+          <t>Class_Phaeophyceae</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Micromonas pusilla</t>
+          <t>Class_Phaeophyceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESV_123</t>
+          <t>ESV_13</t>
         </is>
       </c>
       <c r="B3">
-        <v>-5.297791179142878</v>
+        <v>5.172422815200531</v>
       </c>
       <c r="C3">
-        <v>1.781982559379546E-05</v>
+        <v>2.184133512036059E-05</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Impact
-medium_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -493,46 +488,46 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chlorophyta</t>
+          <t>Chordata</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mamiellophyceae</t>
+          <t>Ascidiacea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mamiellales</t>
+          <t>Phlebobranchia</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bathycoccaceae</t>
+          <t>Ascidiidae</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bathycoccus</t>
+          <t>Ascidia</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bathycoccus prasinos</t>
+          <t>Ascidia ahodori</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESV_123</t>
+          <t>ESV_14</t>
         </is>
       </c>
       <c r="B4">
-        <v>6.580580255532801</v>
+        <v>6.638051762364757</v>
       </c>
       <c r="C4">
-        <v>1.719464141726987E-07</v>
+        <v>1.140759152293507E-06</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -547,51 +542,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chlorophyta</t>
+          <t>Chordata</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mamiellophyceae</t>
+          <t>Ascidiacea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mamiellales</t>
+          <t>Phlebobranchia</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bathycoccaceae</t>
+          <t>Ascidiidae</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Bathycoccus</t>
+          <t>Ascidia</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bathycoccus prasinos</t>
+          <t>Ascidia ahodori</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESV_13</t>
+          <t>ESV_162</t>
         </is>
       </c>
       <c r="B5">
-        <v>-4.100407199245049</v>
+        <v>4.326183037015709</v>
       </c>
       <c r="C5">
-        <v>0.0009947881572379062</v>
+        <v>0.0005946273536436439</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Impact
-medium_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,51 +596,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chordata</t>
+          <t>Chlorophyta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Mamiellophyceae</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Phlebobranchia</t>
+          <t>Mamiellales</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ascidiidae</t>
+          <t>Bathycoccaceae</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Ascidia</t>
+          <t>Bathycoccus</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Ascidia ahodori</t>
+          <t>Bathycoccus prasinos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESV_13</t>
+          <t>ESV_192</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.460725782999705</v>
+        <v>-4.856938398101914</v>
       </c>
       <c r="C6">
-        <v>1.527289378701085E-07</v>
+        <v>6.775177360865027E-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Impact
-low_vs_medium</t>
+low_vs_high</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,51 +650,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chordata</t>
+          <t>Picozoa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Phlebobranchia</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ascidiidae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Ascidia</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Ascidia ahodori</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESV_14</t>
+          <t>ESV_192</t>
         </is>
       </c>
       <c r="B7">
-        <v>-6.800010440193776</v>
+        <v>-4.990869763676815</v>
       </c>
       <c r="C7">
-        <v>6.734549560947751E-07</v>
+        <v>4.683831997155475E-05</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Impact
-medium_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -709,46 +704,46 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chordata</t>
+          <t>Picozoa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Phlebobranchia</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ascidiidae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Ascidia</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Ascidia ahodori</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESV_14</t>
+          <t>ESV_196</t>
         </is>
       </c>
       <c r="B8">
-        <v>9.807251262871803</v>
+        <v>5.836588235091786</v>
       </c>
       <c r="C8">
-        <v>1.798302071915988E-10</v>
+        <v>2.902065928100704E-06</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -761,53 +756,48 @@
           <t>***</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Chordata</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Phlebobranchia</t>
+          <t>Gymnodiniales</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ascidiidae</t>
+          <t>Kareniaceae</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Ascidia</t>
+          <t>Family_Kareniaceae</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Ascidia ahodori</t>
+          <t>Family_Kareniaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESV_162</t>
+          <t>ESV_245</t>
         </is>
       </c>
       <c r="B9">
-        <v>-4.745026858537247</v>
+        <v>-5.085217803243665</v>
       </c>
       <c r="C9">
-        <v>0.0001356918609709081</v>
+        <v>0.0001765043482500776</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Impact
-medium_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -817,51 +807,51 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chlorophyta</t>
+          <t>Porifera</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mamiellophyceae</t>
+          <t>Demospongiae</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Mamiellales</t>
+          <t>Haplosclerida</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bathycoccaceae</t>
+          <t>Petrosiidae</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Bathycoccus</t>
+          <t>Petrosia</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bathycoccus prasinos</t>
+          <t>Genus_Petrosia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESV_162</t>
+          <t>ESV_25</t>
         </is>
       </c>
       <c r="B10">
-        <v>7.063585694392071</v>
+        <v>-5.172607691570549</v>
       </c>
       <c r="C10">
-        <v>3.344814064296233E-08</v>
+        <v>2.182610955540747E-05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Impact
-low_vs_medium</t>
+low_vs_high</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -871,51 +861,51 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Chlorophyta</t>
+          <t>Haptophyta</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mamiellophyceae</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mamiellales</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bathycoccaceae</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bathycoccus</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bathycoccus prasinos</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESV_192</t>
+          <t>ESV_299</t>
         </is>
       </c>
       <c r="B11">
-        <v>-5.14022046465066</v>
+        <v>6.41996051472687</v>
       </c>
       <c r="C11">
-        <v>2.872754030465206E-05</v>
+        <v>1.334698630573211E-06</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Impact
-low_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -925,46 +915,46 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Picozoa</t>
+          <t>Bacillariophyta</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Coscinodiscophyceae</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Thalassiosirales</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Thalassiosiraceae</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Thalassiosira</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Thalassiosira nordenskioeldii</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESV_192</t>
+          <t>ESV_308</t>
         </is>
       </c>
       <c r="B12">
-        <v>-5.099058021228792</v>
+        <v>-7.052160765138916</v>
       </c>
       <c r="C12">
-        <v>2.989615739744294E-05</v>
+        <v>1.524547154005077E-06</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1011,14 +1001,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESV_196</t>
+          <t>ESV_308</t>
         </is>
       </c>
       <c r="B13">
-        <v>4.355134707597238</v>
+        <v>-5.50973177273989</v>
       </c>
       <c r="C13">
-        <v>0.000513237527941674</v>
+        <v>6.88005133343377E-05</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1031,43 +1021,48 @@
           <t>***</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Picozoa</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Gymnodiniales</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Family_Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Family_Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESV_196</t>
+          <t>ESV_335</t>
         </is>
       </c>
       <c r="B14">
-        <v>5.496470219491648</v>
+        <v>-6.717937107477518</v>
       </c>
       <c r="C14">
-        <v>1.061363305908145E-05</v>
+        <v>9.014098900750308E-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1080,48 +1075,53 @@
           <t>***</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Picozoa</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gymnodiniales</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Family_Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Family_Kareniaceae</t>
+          <t>Phylum_Picozoa</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ESV_25</t>
+          <t>ESV_36</t>
         </is>
       </c>
       <c r="B15">
-        <v>-4.573156639558135</v>
+        <v>6.755292733063008</v>
       </c>
       <c r="C15">
-        <v>0.0002119132997539524</v>
+        <v>2.568636504981207E-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Impact
-low_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1131,51 +1131,51 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Haptophyta</t>
+          <t>Bacillariophyta</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phylum_Haptophyta</t>
+          <t>Coscinodiscophyceae</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Phylum_Haptophyta</t>
+          <t>Thalassiosirales</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Phylum_Haptophyta</t>
+          <t>Skeletonemataceae</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Phylum_Haptophyta</t>
+          <t>Skeletonema</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Phylum_Haptophyta</t>
+          <t>Genus_Skeletonema</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESV_299</t>
+          <t>ESV_36</t>
         </is>
       </c>
       <c r="B16">
-        <v>6.756022869289245</v>
+        <v>-5.200595272905139</v>
       </c>
       <c r="C16">
-        <v>4.946056282661562E-07</v>
+        <v>4.092648910402792E-05</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Impact
-low_vs_medium</t>
+medium_vs_high</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1200,36 +1200,36 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Thalassiosiraceae</t>
+          <t>Skeletonemataceae</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Thalassiosira</t>
+          <t>Skeletonema</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Thalassiosira nordenskioeldii</t>
+          <t>Genus_Skeletonema</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ESV_308</t>
+          <t>ESV_363</t>
         </is>
       </c>
       <c r="B17">
-        <v>-6.06018595765088</v>
+        <v>-4.300016436761398</v>
       </c>
       <c r="C17">
-        <v>1.768370661461857E-05</v>
+        <v>0.0006970613342229127</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Impact
-low_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1237,53 +1237,48 @@
           <t>***</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Picozoa</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Raphidophyceae</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Chattonellales</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Chattonellaceae</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Chattonella</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Chattonella subsalsa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ESV_308</t>
+          <t>ESV_387</t>
         </is>
       </c>
       <c r="B18">
-        <v>-7.352474302621493</v>
+        <v>5.131618287672052</v>
       </c>
       <c r="C18">
-        <v>7.784419998270868E-07</v>
+        <v>0.000651081555478663</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Impact
-low_vs_medium</t>
+medium_vs_high</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1293,51 +1288,51 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Picozoa</t>
+          <t>Haptophyta</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ESV_335</t>
+          <t>ESV_387</t>
         </is>
       </c>
       <c r="B19">
-        <v>-7.034655976476362</v>
+        <v>9.616391986732085</v>
       </c>
       <c r="C19">
-        <v>3.791696459076779E-07</v>
+        <v>2.414796669373633E-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Impact
-low_vs_medium</t>
+low_vs_high</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1347,51 +1342,51 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Picozoa</t>
+          <t>Haptophyta</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Phylum_Haptophyta</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESV_335</t>
+          <t>ESV_6</t>
         </is>
       </c>
       <c r="B20">
-        <v>-4.596893228326801</v>
+        <v>5.006105779055482</v>
       </c>
       <c r="C20">
-        <v>0.0004769951600775035</v>
+        <v>4.075272020067858E-05</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Impact
-low_vs_high</t>
+low_vs_medium</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1401,51 +1396,51 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Picozoa</t>
+          <t>Chlorophyta</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Mamiellophyceae</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Mamiellales</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Mamiellaceae</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Micromonas</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Phylum_Picozoa</t>
+          <t>Micromonas pusilla</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ESV_344</t>
+          <t>ESV_6</t>
         </is>
       </c>
       <c r="B21">
-        <v>-8.528907493023995</v>
+        <v>4.245548870560865</v>
       </c>
       <c r="C21">
-        <v>2.965568984423723E-05</v>
+        <v>0.0005622516442845044</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Impact
-medium_vs_high</t>
+low_vs_high</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1455,354 +1450,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bacillariophyta</t>
+          <t>Chlorophyta</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phylum_Bacillariophyta</t>
+          <t>Mamiellophyceae</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Phylum_Bacillariophyta</t>
+          <t>Mamiellales</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Phylum_Bacillariophyta</t>
+          <t>Mamiellaceae</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Phylum_Bacillariophyta</t>
+          <t>Micromonas</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ESV_344</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>-9.401483881919347</v>
-      </c>
-      <c r="C22">
-        <v>1.281259683908799E-05</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Impact
-low_vs_high</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Phylum_Bacillariophyta</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ESV_36</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>-5.597302223691736</v>
-      </c>
-      <c r="C23">
-        <v>1.177785331429425E-05</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Impact
-medium_vs_high</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Coscinodiscophyceae</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Thalassiosirales</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Skeletonemataceae</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Skeletonema</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Genus_Skeletonema</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ESV_36</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>7.709432881340253</v>
-      </c>
-      <c r="C24">
-        <v>1.152340610002702E-08</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Impact
-low_vs_medium</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bacillariophyta</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Coscinodiscophyceae</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Thalassiosirales</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Skeletonemataceae</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Skeletonema</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Genus_Skeletonema</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ESV_387</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>6.966627910523888</v>
-      </c>
-      <c r="C25">
-        <v>1.906811141516898E-05</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Impact
-medium_vs_high</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Haptophyta</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ESV_387</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>8.022359837808722</v>
-      </c>
-      <c r="C26">
-        <v>3.298397435402694E-06</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Impact
-low_vs_high</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Haptophyta</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Phylum_Haptophyta</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ESV_6</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>5.604229233496095</v>
-      </c>
-      <c r="C27">
-        <v>4.462371422406962E-06</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Impact
-low_vs_medium</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Chlorophyta</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Mamiellophyceae</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Mamiellales</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Mamiellaceae</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Micromonas</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>Micromonas pusilla</t>
         </is>
